--- a/biology/Botanique/Chionochloa/Chionochloa.xlsx
+++ b/biology/Botanique/Chionochloa/Chionochloa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Chionochloa  est un genre de plantes monocotylédones de la famille des Poaceae, famille des Danthonioideae, originaire d'Australasie. La Chionochloa flavicans forma temata est une forme différente qui pousse sur le pic Te Mata près de Havelock North (en).
 Étymologie
-le nom générique « Chionochloa » dérive des racines grecques  χιόνος, chionos (neige) et χλόη, chloa (herbe) en référence à l'habitat alpin de ces plantes[2].</t>
+le nom générique « Chionochloa » dérive des racines grecques  χιόνος, chionos (neige) et χλόη, chloa (herbe) en référence à l'habitat alpin de ces plantes.</t>
         </is>
       </c>
     </row>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2012) :
 Chionochloa acicularis Zotov (1963)
 Chionochloa antarctica (Hook.f.) Zotov (1963)
 Chionochloa australis (Buchanan) Zotov (1963)
